--- a/docs/一些图表.xlsx
+++ b/docs/一些图表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="算法正确率" sheetId="1" r:id="rId1"/>
+    <sheet name="模型融合正确率" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Cart</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +42,10 @@
   </si>
   <si>
     <t>BernoulliNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,11 +373,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="324625184"/>
-        <c:axId val="324623504"/>
+        <c:axId val="111771568"/>
+        <c:axId val="111772128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324625184"/>
+        <c:axId val="111771568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +420,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324623504"/>
+        <c:crossAx val="111772128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -423,7 +428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324623504"/>
+        <c:axId val="111772128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324625184"/>
+        <c:crossAx val="111771568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -488,6 +493,413 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>模型在不同训练次数下的评分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>模型融合正确率!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>模型评分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>模型融合正确率!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>模型融合正确率!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.95022624434400005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94570135746600004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94570135746600004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95022624434400005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95022624434400005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94570135746600004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95022624434400005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94570135746600004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="331739296"/>
+        <c:axId val="331747696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="331739296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331747696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331747696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331739296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -563,8 +975,551 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1080,6 +2035,41 @@
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595311</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1390,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1448,4 +2438,103 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>200</v>
+      </c>
+      <c r="K1">
+        <v>300</v>
+      </c>
+      <c r="L1">
+        <v>400</v>
+      </c>
+      <c r="M1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.95022624434400005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.94570135746600004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.94570135746600004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0.95022624434400005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0.95022624434400005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.94570135746600004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0.95022624434400005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>0.94570135746600004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>